--- a/error_counts/ccner/Meta-Llama-3.1-405B-Instruct/similarity_5_parsed_output/tokens_potential.xlsx
+++ b/error_counts/ccner/Meta-Llama-3.1-405B-Instruct/similarity_5_parsed_output/tokens_potential.xlsx
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">	active solar control systems</t>
+          <t>active solar control systems</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
